--- a/biology/Botanique/Kalappia_celebica/Kalappia_celebica.xlsx
+++ b/biology/Botanique/Kalappia_celebica/Kalappia_celebica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kalappia celebica est une espèce de plantes à fleurs dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Caesalpinioideae, originaire d'Indonésie. C'est l'unique espèce du genre Kalappia (genre monotypique).
 Kalappia celebica est un arbre qui peut atteindre 40 mètres de haut, avec un fût de 90 cm de diamètre et des contreforts atteignant 3 mètres de haut et 20 cm d'épaisseur, et s'étendant vers l'extérieur sur 2 mètres.
-L'arbre fournit un bois d'œuvre apprécié localement, où il est connu sous le nom de « kalapi ». Il est généralement exploité dans la nature pour une utilisation locale et était exporté en quantité lorsqu'il était plus abondant[3].
-L'espèce ne se rencontre que dans les environs de Malili dans l'île de Célèbes (Sulawesi). Elle est classée comme « vulnérable » (VU) dans la Liste rouge des espèces menacées de l'UICN[4]. 
+L'arbre fournit un bois d'œuvre apprécié localement, où il est connu sous le nom de « kalapi ». Il est généralement exploité dans la nature pour une utilisation locale et était exporté en quantité lorsqu'il était plus abondant.
+L'espèce ne se rencontre que dans les environs de Malili dans l'île de Célèbes (Sulawesi). Elle est classée comme « vulnérable » (VU) dans la Liste rouge des espèces menacées de l'UICN. 
 </t>
         </is>
       </c>
